--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_5_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_5_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.32000000000036</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.487894733053572e-16</v>
+        <v>2.801824667823739e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.04479097958223</v>
+        <v>39.61175967413118</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.068748967596186, 55.02083299156828]</t>
+          <t>[31.584860987286632, 47.638658360975725]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.528342372016657</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 1.717026615475504]</t>
+          <t>[1.377394977249578, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>66.11322600154276</v>
+        <v>68.08541008979232</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[60.763904325181315, 71.4625476779042]</t>
+          <t>[62.77513529957389, 73.39568488001075]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.40432432432459</v>
+        <v>18.15687687687716</v>
       </c>
       <c r="X2" t="n">
-        <v>17.67399399399425</v>
+        <v>17.27831831831858</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.13465465465494</v>
+        <v>19.03543543543573</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.64000000000057</v>
+        <v>25.40000000000053</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,32 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.487894733053572e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>2.801824667823739e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4614286843722659</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.76383161584955</v>
+        <v>51.57627642954376</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.651999848340175, 54.87566338335892]</t>
+          <t>[39.62739804868923, 63.52515481039829]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.58494764505431</v>
+        <v>-2.339684618889696</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.8113687372049254, -1.3585265529036947]</t>
+          <t>[-2.578684660604234, -2.100684577175157]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>69.88353801837452</v>
+        <v>63.90265929311757</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[63.856279204048406, 75.91079683270064]</t>
+          <t>[57.68691314622927, 70.11840544000587]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.467747747747893</v>
+        <v>9.458258258258455</v>
       </c>
       <c r="X3" t="n">
-        <v>5.54378378378391</v>
+        <v>8.492092092092271</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.391711711711876</v>
+        <v>10.42442442442464</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_5_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_5_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.38000000000037</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.801824667823739e-16</v>
+        <v>2.589441456851677e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.61175967413118</v>
+        <v>43.54264143037667</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.584860987286632, 47.638658360975725]</t>
+          <t>[35.495617141018315, 51.589665719735024]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603816069400194</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.377394977249578, 1.8302371615508104]</t>
+          <t>[1.3270791789938867, 1.729605565039427]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.08541008979232</v>
+        <v>64.40268728620728</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[62.77513529957389, 73.39568488001075]</t>
+          <t>[59.10594810101304, 69.69942647140152]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.15687687687716</v>
+        <v>18.40432432432459</v>
       </c>
       <c r="X2" t="n">
-        <v>17.27831831831858</v>
+        <v>17.62530530530556</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.03543543543573</v>
+        <v>19.18334334334363</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.40000000000053</v>
+        <v>25.47000000000054</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,32 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.801824667823739e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.4614286843722659</v>
-      </c>
+        <v>2.589441456851677e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.57627642954376</v>
+        <v>45.16120166635316</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.62739804868923, 63.52515481039829]</t>
+          <t>[33.54436346478377, 56.77803986792256]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.222666495299563e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.222666495299563e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.339684618889696</v>
+        <v>-2.15100037543085</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.578684660604234, -2.100684577175157]</t>
+          <t>[-2.415158316273234, -1.8868424345884653]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>63.90265929311757</v>
+        <v>65.79202937070005</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.68691314622927, 70.11840544000587]</t>
+          <t>[59.76353203773583, 71.82052670366427]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.458258258258455</v>
+        <v>8.719459459459646</v>
       </c>
       <c r="X3" t="n">
-        <v>8.492092092092271</v>
+        <v>7.648648648648814</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.42442442442464</v>
+        <v>9.790270270270478</v>
       </c>
     </row>
   </sheetData>
